--- a/doc/dayly-transaction.xlsx
+++ b/doc/dayly-transaction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\.local\share\go\workspace\lupus-base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{107F4650-135F-4E2C-94D3-9991EA1C6EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7758A288-781A-47E2-8F93-9210743FAD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5FBBC43-3FAB-41E7-84C3-3336D8872BEF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>受注/出荷</t>
     <rPh sb="0" eb="2">
@@ -398,6 +398,19 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動(返品保全)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンピン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゼン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -860,8 +873,8 @@
   <dimension ref="B1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -1305,6 +1318,9 @@
       <c r="C61" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="E61" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="G61" s="5" t="s">
         <v>48</v>
       </c>
